--- a/controllers/uploads/data.xlsx
+++ b/controllers/uploads/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D62C8B-12C1-49F5-A7DE-B67BA9E16DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A67869-E65E-4640-84FA-6E033FC4DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>fullname</t>
   </si>
@@ -37,37 +37,22 @@
     <t>active</t>
   </si>
   <si>
-    <t>Lê Quang Nhật Anh</t>
-  </si>
-  <si>
-    <t>0905448256</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Tín</t>
-  </si>
-  <si>
-    <t>0905448778</t>
-  </si>
-  <si>
-    <t>Hồ Thị Thùy Dung</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ttt</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>ah@gmail.com</t>
-  </si>
-  <si>
-    <t>tn@gmail.com</t>
-  </si>
-  <si>
-    <t>dun@gmail.com</t>
+    <t>Nguyen Van CC</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CC2gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyen Thi HG</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>HG@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -455,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -463,9 +448,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="24.69921875" customWidth="1"/>
+    <col min="1" max="1" width="28.69921875" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -485,69 +471,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
+      <c r="C2">
+        <v>123456789</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>123456789</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{0DB002FD-5F0E-4322-AD2B-C95CC2123286}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{4FC6F912-3958-441A-9B75-5877F824C52D}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{0A4BB8B0-DC0A-48F7-8923-3AE39C2F8779}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{F7848041-DEC2-49D6-89FE-BEF734040C59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A2 C2 A3 C3 A4 C4 E2 E3 E4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>